--- a/chapter_data.xlsx
+++ b/chapter_data.xlsx
@@ -1,15 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="24750" windowHeight="11630"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="SD6ERHrFAJz+pbsHPyxVPG+pCVjhps9Dpq6FLCweHTM="/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -30,493 +41,1332 @@
     <t>SUMMARY</t>
   </si>
   <si>
-    <t>1.  蘧公孙：本章的核心人物。他是南昌太守之孙，年轻有才，带着祖父的书信和刻印的诗话前来拜访娄府。因才华被鲁编修看中，最终成为鲁家的乘龙快婿。
-2.  鲁编修：关键促成者。一位告假还乡的翰林院编修。他因无子，一心要为才貌双全的女儿择一佳婿。在娄府席间看中蘧公孙的才华，主动托人说媒。
-3.  娄三公子 &amp; 娄四公子：重要的引荐和操办者。他们是蘧公孙的表叔，也是连接蘧公孙与鲁编修的桥梁。他们接待公孙，设宴邀请鲁编修，并在其中穿针引线，最终主持操办了婚事。
-4.  陈和甫：媒人。一个自称精通多种术数的江湖人士。受鲁编修委托，正式向娄家提亲，并负责合婚、择吉日等事宜。
-5.  牛布衣：另一位媒人。他是娄府故交，与蘧公孙的父亲曾同僚。在提亲时作为娄府这边的媒人，与陈和甫一同前往鲁家。
-6.  鲁小姐：联姻的另一方。虽未直接出场，但其“德性温良，才貌出众”是鲁编修择婿的动机，也是本章事件得以成立的前提。</t>
-  </si>
-  <si>
-    <t>本章的核心情节是 “蘧公孙与鲁小姐的联姻” ，这一事件由以下几个关键环节构成：
-1.  船上初遇与席间铺垫
-    参与者：娄氏公子、鲁编修
-    事件：娄氏公子在归乡船上巧遇鲁编修，受邀同饮。席间，鲁编修表达了对无子和女儿婚事的忧虑，为后文择婿埋下伏笔。
-2.  蘧公孙投亲，展示才华
-    参与者：娄氏公子、蘧公孙、牛布衣
-    事件：蘧公孙来到娄府，送上自己刻印的诗话，得到两位表叔的大力称赞。牛布衣的到来和追忆，进一步烘托了蘧公孙的家学渊源和名士之后的身份。
-3.  娄府设宴，鲁编修相婿
-    参与者：娄氏公子、鲁编修、蘧公孙
-    事件：这是转折点事件。娄府设宴招待鲁编修，蘧公孙作陪。席间：
-           鲁编修仔细询问了蘧公孙的生辰八字。
-           两公子极力推崇蘧公孙的诗作和才华。
-           鲁编修对蘧公孙十分满意，心中已选定他为女婿。
-4.  陈和甫作伐，两家定亲
-    参与者：陈和甫、娄氏公子、鲁编修（幕后）、蘧太守（书信往来）
-    事件：鲁编修委托陈和甫正式向娄家提亲。娄氏公子写信征得蘧公孙祖父（蘧太守）的同意和授权。双方通过媒人（陈和甫、牛布衣）交换允帖和庚帖，完成定亲仪式。
-5.  入赘成亲，婚礼风波
-    参与者：蘧公孙、鲁编修、娄氏公子、陈和甫及众多宾客、仆人。
-    事件：这是高潮事件。因鲁编修舍不得女儿，蘧公孙入赘鲁家。盛大的婚礼上接连发生意外：
-           老鼠坠席：一只老鼠从梁上掉入燕窝碗，弄脏了新郎的吉服。
-           仆人失手：一个乡下小仆看戏入迷，打碎碗盘，踢飞钉鞋，打翻了陈和甫桌上的点心和汤。
-    意义：这些不吉利的小插曲，为这段看似美满的婚姻埋下了一层阴影和悬念，暗示了后续故事可能存在的波折。</t>
-  </si>
-  <si>
-    <t>总而言之，本章通过一系列连贯的事件，完整地讲述了鲁编修如何因赏识蘧公孙的才华而择其为婿，以及两家如何操办婚事的过程，同时又在热闹的婚礼中暗藏了对未来的隐喻。</t>
-  </si>
-  <si>
-    <t>1.  鲁小姐：本章的核心人物。她是一位被父亲当作儿子培养的才女，精通八股制艺，热切期望丈夫能通过科举博取功名。她的理想与丈夫的现实产生了尖锐矛盾，是本章冲突的源头。
-2.  蘧公孙：矛盾的另一方。他是一个风流名士，对诗词歌赋感兴趣，却对科举八股文章毫无兴趣，甚至认为那是“俗事”。他的态度让鲁小姐大失所望。
-3.  鲁编修：鲁小姐的父亲。他是科举制度的忠实拥护者，因无子而将科举梦想寄托在女儿身上。他对女婿不肯钻研举业感到失望和气闷，以致生病。
-4.  鲁夫人：试图调和女儿与女婿之间的矛盾，劝女儿不要过于固执，但从情感上更疼爱女婿。
-5.  养娘：鲁小姐的贴身仆人。她劝慰小姐，并提出了一个未来的解决方案——将来教导小公子成才。
-6.  杨执中：娄府公子赏识的“名士”。本章后半部分，他作为引子，为娄府公子推荐了下一位“高人”，推动了后续情节。
-7.  娄三公子、娄四公子：好客礼贤的贵族公子。他们继续其结交名士的行为，在本章中拜访杨执中，并听其推荐新的人物。
-8.  邹吉甫：娄府的旧仆，充当了娄府公子与杨执中之间的联络人。</t>
-  </si>
-  <si>
-    <t>本章的核心情节是 “鲁小姐因蘧公孙轻视举业而引发的家庭矛盾” ，具体由以下几个事件构成：
-1.  才女试新郎，公孙露真容
-    参与者：鲁小姐、蘧公孙
-    事件：新婚不久，鲁小姐满心以为蘧公孙举业已成。她先是通过同看文章观察，后忍不住以父亲的名义出题《身修而后家齐》请公孙作文。公孙直接回绝，声称自己于此道“不甚在行”，并视八股       为“俗事”。此举彻底暴露了他对科举的态度。
-2.  理想破灭，夫妻生隙
-    参与者：鲁小姐、蘧公孙、养娘、鲁夫人
-    事件：鲁小姐发现丈夫并非自己理想的“进士之才”后，深感终身误托，终日愁眉不展，夫妻关系出现裂痕。尽管养娘和鲁夫人多方劝解，但鲁小姐“好女不穿嫁时衣”的观念根深蒂固，矛盾无法调和。
-3.  编修公试文，失望以致病
-    参与者：鲁编修、蘧公孙
-    事件：鲁编修亲自出题考核女婿，蘧公孙勉强写出的文章却满是诗词歌赋的腔调，并非“正经”的八股文。鲁编修大失所望，气闷在心，加之打算娶妾延续书香的想法被夫人劝阻，一气之下中风病倒。
-4.  娄公子访杨，新贤待引荐
-    参与者：娄氏公子、蘧公孙、邹吉甫、杨执中
-    事件：在蘧公孙家事不顺的同时，娄府公子在邹吉甫的引线下，终于成功拜访了杨执中。杨执中家境贫寒却自命清高，在受到礼遇后，又向两位公子推荐了一位在他看来更有经天纬地之才的朋友（即上一章的权勿用），为下文埋下伏笔。</t>
-  </si>
-  <si>
-    <t>总而言之，本章通过细腻的笔触，描绘了鲁小姐与蘧公孙这对才子佳人因价值观念（科举功名 vs 名士风流）不同而导致的婚姻危机，同时穿插了娄府公子继续寻访“贤士”的副线，展现了当时社会中不同阶层、不同性格人物对“功名”与“学问”的不同态度。</t>
-  </si>
-  <si>
-    <t>1.  娄三公子、娄四公子：本章的核心组织者。他们是慷慨好客的贵族公子，一心效仿古人礼贤下士，本章中的所有事件都围绕着他们招揽、款待“名士”与“侠客”展开。
-2.  权勿用：被邀请的“高人”之一。由杨执中推荐，被形容为有“管、乐经纶，程、朱学问”。但实际形象古怪、迂腐且狼狈（如孝帽被挑、撞官被锁），名不副实。
-3.  张铁臂：被邀请的“侠客”。他自称武艺高强、行侠仗义，在娄府舞剑技惊四座。本章末尾他导演了“人头会”骗局，是高潮事件的核心。
-4.  杨执中：引荐人及座上宾。是他向娄府公子推荐了权勿用，并一同参与了莺脰湖之会。他与权勿用因钱财小事产生矛盾。
-5.  蘧公孙：参与者。作为娄府的外甥，他也参与了莺脰湖之会。
-6.  牛布衣、陈和甫：参与者。他们是娄府交往的文人清客，也在被邀之列，为宴会增添“名士”氛围。
-7.  杨老六：杨执中的蠢儿子。他的出现（偷钱、闹宴）侧面烘托了这群“名士”圈子的混乱与不堪。
-8.  鲁编修：局外批评者。他得知此事后，批评娄氏公子不务正业，与这类人交往是“招摇豪横”，代表了正统士大夫对此类活动的鄙夷态度。</t>
-  </si>
-  <si>
-    <t>本章的核心情节是 “娄府公子召集名士侠客，举办了一场看似风雅实则荒唐的聚会，并以一场骗局收场” ，具体由以下几个事件构成：
-1.  寻访权勿用，耳闻其真容
-    参与者：娄府公子、杨执中、家人宦成、船上旅客
-    事件：娄府公子派家人宦成去萧山邀请权勿用。宦成在船上听两位萧山旅客谈论权勿用，揭露了他本是一个屡试不第、穷困潦倒、在乡间行骗的无用之人，为后文其出场做了反面铺垫。
-2.  权勿用进城，丑态百出
-    参与者：权勿用、张铁臂、魏厅官
-    事件：权勿用进城途中，因行为莽撞，孝帽被乡里人的扁担挑走，后又冲撞了官员的轿子险些被锁。幸得旧相识张铁臂以“娄府上客”之名解围。此事件生动刻画了其狼狈可笑的形象。
-3.  张铁臂炫技，夜宴显“神功”
-    参与者：张铁臂、娄府公子、权勿用、杨执中等
-    事件：在娄府夜宴上，张铁臂舞剑，剑光闪烁，寒氣逼人，并能泼水不入，赢得了满座称赞。此举成功塑造了他“绝世侠客”的假象，为后来的骗局铺垫了信任基础。
-4.  莺脰湖盛会，名士大聚会
-    参与者：娄府公子、蘧公孙、牛布衣、杨执中、权勿用、张铁臂、陈和甫、杨老六
-    事件：这是本章的中心事件。娄府公子广邀宾朋，分乘大船，在莺脰湖上饮酒作乐，吟诗击剑，灯火辉煌，声势浩大。表面上看是一次风雅的“胜会”，实则聚集了一群怪模怪样、徒有虚名的人物。
-5.  张铁臂献头，骗局开场
-    参与者：张铁臂、娄府公子
-    事件：这是本章的高潮事件。深夜，张铁臂提着一个血淋淋的革囊（声称里面是仇人头颅）突然现身，以报恩需五百两银子为由向娄府公子借款，并许诺回来用药将人头化为水。深信不疑的娄府公子慷慨解囊，张铁臂留下革囊携银而去。这个事件彻底暴露了娄府公子等人不辨真伪、徒慕虚名的可笑与可悲。</t>
-  </si>
-  <si>
-    <t>总而言之，本章通过“寻访高人”、“丑态进城”、“夜宴炫技”、“湖上盛会”和“夜献人头”等一系列事件，层层递进地描绘了娄府公子所营造的“名士”圈子如何从一场闹剧最终演变成一场骗局，辛辣地讽刺了所谓“礼贤好士”的虚荣与盲目。</t>
-  </si>
-  <si>
-    <t>1.  马二先生（马纯上）：本章的核心人物。一位真诚、热心且精通举业的选家（编选科举范文的人）。他教导蘧公孙举业的重要性，并在其危难之际挺身而出，仗义疏财。
-2.  蘧公孙：贯穿始终的人物。他从一个淡泊名利的诗人，转变为开始重视举业，并因家藏“钦赃”而卷入官司，是事件的中心。
-3.  差人：关键推动者。他老练狡猾，利用宦成和双红提供的枕箱信息，策划并实施了对蘧公孙的敲诈勒索。
-4.  宦成：娄府旧仆，事件的直接引发者。他拐走了蘧公孙的丫鬟双红，并在差人的点拨下，企图利用枕箱的秘密敲诈旧主。
-5.  双红：蘧公孙的丫鬟。她无意中向宦成透露了枕箱的来历（与投降宁王的王惠有关），成为了整个敲诈事件的导火索。
-6.  娄府两位公子：承上启下的人物。本章开头，他们“人头会”的骗局被揭穿（猪头事件），紧接着权勿用又因奸拐尼僧案被差人捉走。这两件事让他们心灰意冷，从此闭门谢客，标志着娄府“礼贤好士”闹剧的终结。</t>
-  </si>
-  <si>
-    <t>本章情节由两条线索交织而成：一是娄府名士圈的彻底瓦解，二是蘧公孙遭遇危机与马二先生出手相助。
-1.  “人头会”骗局揭穿与权勿用被捕
-     参与者：娄府公子、众宾客（牛布衣、陈和甫、蘧公孙等）、差人、权勿用、杨执中
-     事件：张铁臂并未如约返回。革囊发臭后，娄府公子打开发现里面是个猪头。与此同时，萧山县差人前来捉拿因“奸拐尼僧”案在身的权勿用。这两件事接连发生，使得娄府公子颜面扫地，意兴阑珊，从此闭门不出。此事件为上一章的高潮画上了句号，也终结了娄府公子招揽“名士”的故事线。
-2.  马二先生论举业，点醒蘧公孙
-    参与者：马二先生、蘧公孙
-    事件：蘧公孙结识选家马二先生。马二先生一番关于“举业（科举）乃是古今读书人安身立命之本”的宏论，深刻透彻，使一直轻视八股的蘧公孙“如梦方醒”，开始重新思考人生方向。两人结为挚友。
-3.  枕箱秘密泄露，引发敲诈危机
-    参与者：双红、宦成、差人
-    事件：被宦成拐走的丫鬟双红，无意中说出了蘧公孙家旧枕箱的来历——与朝廷钦犯王惠有关。老练的差人得知后，意识到这是敲诈的绝佳机会，于是怂恿并策划宦成，以此威胁蘧公孙。此事件是本章下半部分的核心矛盾。
-4.  马二先生仗义疏财，化解危机
-    参与者：马二先生、差人
-    事件：差人找到与蘧公孙交好的马二先生，以递送“出首叛逆”的呈子相威胁。马二先生为了保全朋友，决定破财消灾，用自己的银子替蘧公孙赎回枕箱，以平息此事。此事件集中体现了马二先生慷慨重义的品格，与之前娄府那群虚伪的“名士”形成鲜明对比。</t>
-  </si>
-  <si>
-    <t>总而言之，本章通过“猪头现形”和“权勿用被捕”宣告了假名士、假侠客的荒唐剧终场；同时，通过“枕箱风波”引出了真儒者马二先生，展现了他关于举业的务实见解和为朋友仗义疏财的真性情，推动了主人公蘧公孙的思想转变。</t>
-  </si>
-  <si>
-    <t>1.  马二先生（马纯上）：本章的绝对核心人物。他的形象在本章得到充分展现：
-       作为朋友：他真诚、仗义，不惜倾尽所有积蓄为蘧公孙解决枕箱危机。
-       作为书生：他迂阔而虔诚，在西湖游览时表现出对功名的执着和对皇权的敬畏。
-       作为普通人：他经济拮据，在西湖边面对美食只能咽口水，显得朴实又有些滑稽。
-2.  蘧公孙：重要配角。他是枕箱事件的受益者，对马二先生的仗义行为感激涕零，他的态度反衬出马二先生品格的高尚。
-3.  差人：关键执行者。他精明世故，熟练地周旋于马二先生和宦成之间，通过威逼利诱和造假婚书等手段，最终促成交易，自己也从中牟利。
-4.  宦成与双红：事件的余波。他们是敲诈案的始作俑者，在本章中被差人利用并最终打发走，为枕箱事件画上句号。
-5.  鲁小姐：侧面烘托者。她听闻马二先生的义举后，与丈夫一同感佩，再次强化了对“正人君子”的认同，与她之前对娄府名士圈的不屑形成呼应。
-6.  神秘人物（洪憨仙）：新角色的引入。本章末尾在丁仙祠出现的白须老者，仙风道骨，主动与马二先生搭话，为下一回的故事埋下伏笔。</t>
-  </si>
-  <si>
-    <t>本章情节分为前后两个部分，前半部分解决旧矛盾，后半部分开启新冒险。
-第一部分：仗义疏财，解决危机
-1.  马二先生倾囊赎箱
-    参与者：马二先生、差人
-    事件：马二先生与差人讨价还价，最终将自己辛辛苦苦赚来的九十二两选书束脩全部拿出，并配合差人伪造了一张一百两的婚书，成功从差人处赎回了作为“钦赃”的枕箱。此事件是高潮，充分展现了马二先生“血心为朋友”的品格。
-2.  真相大白，公孙感恩
-    参与者：马二先生、蘧公孙、鲁小姐
-    事件：马二先生将赎箱的经过和盘托出，并声明不要偿还。蘧公孙得知后感激涕零，行大礼拜谢。夫妻二人对马二先生的人品推崇备至。此事件完成了对马二先生义举的肯定和表彰。
-3.  挚友离别，前往杭州
-    参与者：马二先生、蘧公孙
-    事件：危机解除后，马二先生辞别蘧公孙，前往杭州继续选书事业。蘧公孙依依送别。此事件结束了马二先生在嘉兴的故事线，将他引向了新的舞台——杭州西湖。
-第二部分：游历西湖，初遇仙人
-4.  马二先生游湖
-    参与者：马二先生
-    事件：这是本章的精彩片段。马二先生囊中羞涩，游览西湖时只吃得起面、茶和饼，面对美食只能咽口水。他既不近女色，也不懂风雅，只对皇帝的御书顶礼膜拜，对功名富贵充满羡慕。这段描写以幽默的笔触，生动刻画了一个迂腐、诚实、穷困而又可爱的书生形象，与西湖的繁华绮丽形成鲜明对比。
-5.  丁仙祠遇仙
-    参与者：马二先生、神秘老者（洪憨仙）
-    事件：马二先生游吴山至丁仙祠，正准备求签问卜功名时，一位仙风道骨的白须老者主动与他搭话，声称能教他发财。此事件是本章的结尾和高潮，为下文“神仙”设局的故事拉开了序幕。</t>
-  </si>
-  <si>
-    <t>总而言之，本章通过“赎箱”事件完美塑造了马二先生仗义疏财的君子形象，又通过“游湖”情节细腻描绘了他作为迁拙书生的可爱与窘迫。最后以“遇仙”收尾，巧妙地设置了新的悬念，推动了情节的发展。</t>
-  </si>
-  <si>
-    <t>1.  马二先生（马纯上）：本章的核心人物。他是一个以选编科举文章为生的老实、善良但有些迂腐的秀才。
-       性格特点：善良热心、仗义疏财、笃信科举仕途、容易轻信（如 initially 被洪憨仙欺骗）。
-       本章作用：先后经历了“遇仙-识破骗局”和“结交匡超人-仗义相助”两件大事，是串联本章情节的主线。
-2.  洪憨仙：一个高级骗子，伪装成三百多岁的神仙。
-       性格特点：善于策划、老谋深算、故弄玄虚。
-       同伙：他的儿子、两个侄儿、一个女婿（假扮其“长随”）。
-       行骗对象：马二先生（作为跳板和信誉保证）、胡三公子（真正的目标）。
-       本章作用：制造了本章前半部分的主要戏剧冲突——“炼银”骗局。
-3.  匡超人（匡迥）：一个出身贫寒、流落异乡、但勤奋好学的年轻读书人。
-       性格特点：孝顺、勤学、机灵、懂得感恩（在本章中）。
-       本章作用：他是本章后半部分的核心，与马二先生相遇并得到其倾力相助，开启了他人生的转折点。
-4.  胡三公子（胡缜）：已故胡尚书的儿子，贪财而迷信。
-       性格特点：有“钱癖”、易受蛊惑。
-       本章作用：他是洪憨仙骗局意图诈骗的主要目标。
-5.  郑老爹：在匡超人回家的船上遇到的官差，为人通情达理。
-       本章作用：提供了一个关于“不孝”的社会新闻，与匡超人的孝心形成对比，并安全地将匡超人送回家乡。</t>
-  </si>
-  <si>
-    <t>1.  遇仙与骗局
-    参与者：马二先生、洪憨仙、胡三公子）
-    事件：马二先生因盘缠用尽，到丁仙祠求签问财运，偶遇洪憨仙。
-        1.  展示神迹：洪憨仙自称神仙，将马二先生引至豪华住所，展示其“三百多岁”的“诗作”和与官府的交往，获取马的初步信任。
-        2.  “点煤成银”：洪憨仙赠予马二先生“黑煤”，马回家实验后，竟烧出了八九十两银子，使其对洪的神仙身份深信不疑。
-        3.  引入目标：洪憨仙让马二先生假扮其表弟，共同会见胡三公子，计划以炼制“银母”（能点铜锡为黄金）为名，骗取胡三公子一万两银子。
-        高潮与结局：
-        1.  骗局败露：就在计划即将实施时，洪憨仙突然病逝。其女婿向马二先生揭示了真相：“黑煤”本就是用煤烟熏黑的银子，他们是一伙骗子，结交马二先生是为了借他的名声取信于胡三公子。
-        2.  马二先生的反应：马二先生恍然大悟，但心地善良的他并未过多计较，反而出钱帮忙料理了洪憨仙的后事。
-2.   仗义助匡
-     参与者：马二先生、匡超人
-     事件：马二先生在茶棚遇见边拆字边苦读他编选的文章的匡超人。
-         经过：
-         1.  相识与同情：马二先生与匡超人交谈，得知他家境贫寒、流落省城，且家中父亲病重，因而极度悲伤。马的恻隐之心被触动。
-         2.  考察与指点：马二先生出题测试匡超人的文章，认为其有才气但理法不足，并悉心指导他作文之法。
-         3.  慷慨解囊：马二先生不仅没有收取指导费，反而主动赠予匡超人十两银子作为回家的盘缠和安家之本，并送了旧棉袄和鞋御寒。
-         4.  结为兄弟与赠言：马二先生与匡超人结拜为异姓兄弟。临别前，马二先生对他进行了一番深刻的“思想教育”，核心是：“举业至上”，认为只有读书中举才能光宗耀祖，才是最大的孝道（“显亲扬名”才是大孝）。
-         结局：匡超人感激涕零地乘船回家。在船上，他遇到了郑老爹，听闻了富家秀才不孝的故事，更加坚定了自己孝顺和读书的决心。最终，他平安回到了家乡。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">本章讲述了马二先生遇假神仙洪憨仙，识破“点煤成银”骗局后，仗义为其料理后事。归途中，他偶遇流落省城的贫寒孝子匡超人，被其孝心与勤学打动，慷慨赠其银两衣物，并结为兄弟，谆谆劝导其以举业为重，最终资助他回乡尽孝。故事刻画了马二先生虽迂腐却善良仁义的品格，也展现了匡超人初时纯朴孝悌的形象。
-</t>
-  </si>
-  <si>
-    <t>1. 匡超人（匡迥）  
-      本章核心人物，孝顺勤勉，回乡后全心照顾病父，日夜操劳（杀猪、磨豆腐、伺候起居），同时坚持读书。
-      因孝行与苦读被知县赏识，得以参加县试，并取得案首（第一名）。
-2. 匡太公  
-      匡超人的父亲，因病卧床，因家族房产纠纷气病，后在匡超人悉心照料下病情好转。
-3. 潘保正  
-      村中的保正，赏识匡超人，为他相面预言“贵人星照命”，并在火灾后帮助其一家安身。
-      在知县询问夜读之人时，极力推荐匡超人。
-4. 李本瑛（知县）  
-      乐清县知县，夜间路过听见匡超人读书，了解其家境与孝行后，主动鼓励他应考，并予以资助与提拔。
-5. 匡大哥与嫂子  
-      匡超人的兄嫂，已与父亲分家，生活困窘，对匡超人多有抱怨，但在火灾中也一同逃难。
-6. 三房阿叔  
-      匡家亲戚，逼迫匡太公卖房，是引发家庭矛盾的外因。</t>
-  </si>
-  <si>
-    <t>1.  匡超人返乡尽孝  
-    参与者：匡超人、匡太公、母亲、兄嫂  
-    事件：  
-    1. 匡超人回家见父病重，细心照料，每晚跪侍父亲出恭，白天杀猪磨豆腐维持生计。  
-    2. 他婉转应对三房阿叔逼房，以理服人，暂缓冲突。
-2.  乡村失火与迁居  
-    参与者：匡超人一家、潘保正、和尚  
-    事件：  
-    1. 全村遭遇火灾，匡超人率先救出父母，其兄只顾抢货。  
-    2. 潘保正出面协助，安排匡家暂住和尚庵，后租屋安身。
-3.  知县赏识与鼓励参考  
-    参与者：李知县、潘保正、匡超人  
-    事件：  
-    1. 知县夜闻读书声，询问潘保正，得知匡超人孝行与苦读。  
-    2. 知县发帖鼓励匡超人应考，并承诺资助。
-4.  匡超人县试夺魁  
-    参与者：匡超人、李知县、学道  
-    事件：  
-    1. 匡超人参加县试，被知县取为案首。  
-    2. 知县赠银资助，并在学道面前赞扬其孝行与才学，为其争取进学机会。</t>
-  </si>
-  <si>
-    <t>本章通过匡超人尽孝、苦读、遇贵人、中案首等一系列情节，塑造了一个恪守孝道、勤学不辍的寒门子弟形象，同时展现了知县李本瑛作为“贤宰”重视孝道与人才的一面，为后续匡超人的命运转折埋下伏笔。</t>
-  </si>
-  <si>
-    <t>1.  匡超人
-       本章核心人物。考中秀才后返乡，经历父亲病逝、知县被革职、被迫离家避祸等一系列事件，最终前往杭州。
-       在去杭州的船上及抵达后，结识了景兰江、赵雪斋等杭州“名士”，初次接触了与马二先生倡导的“举业”截然不同的诗人圈子，思想开始受到冲击。
-2.  匡太公
-       匡超人的父亲。在匡超人考中秀才后病情加重，临终前对匡超人留下关于坚守德行、不可势利的告诫，随后去世。
-3.  潘保正
-       村里的保正。一如既往地帮助匡家，在匡超人需要避祸时，为他写信引荐在杭州布政司做吏的兄弟潘三爷。
-4.  李本瑛知县
-       匡超人的老师。虽未直接出场，但其被革职是推动情节发展的关键。百姓为他罢市挽留，而匡超人因与其关系密切受到牵连，被迫出走。
-5.  景兰江
-       杭州的头巾店商人，但自称“名士”。是匡超人进入杭州诗人圈子的引路人，向他展示了另一种以作诗扬名的人生价值观。
-6.  赵雪斋
-       杭州著名的“布衣诗人”，虽无功名，但诗名远扬，交际广泛，是当地诗坛的领袖人物之一。
-7.  支剑峰、浦墨卿
-       景兰江、赵雪斋诗圈中的成员，是杭州的“诗会领袖”。</t>
-  </si>
-  <si>
-    <t>1.  匡超人中秀才与家庭变故
-    参与者：匡超人、匡太公、潘保正、匡大
-    事件：
-    1. 喜报传来：匡超人在府试中取得第一名，成为秀才（入泮），潘保正和乡邻前来道贺。
-    2. 父亲去世：匡太公在儿子功名有成后安然病逝，临终遗言强调“德行”比“功名”更重要，告诫匡超人不可势利。
-    3. 老师被革职：赏识匡超人的李知县被革职查办，引发民变。匡超人因是知县门生而受到牵连，被差人密报为“为头保留”者，面临官非。
-2.  避祸远走杭州
-    参与者：匡超人、潘保正
-    事件：
-    1. 潘保正告知匡超人被密报的消息，建议他外出躲避。
-    2. 匡超人决定前往杭州，潘保正修书一封，介绍他去找在布政司为吏的兄弟潘三爷寻求照应。
-3： 初入杭州名士圈
-    参与者：匡超人、景兰江、赵雪斋、支剑峰、浦墨卿
-    事件：
-    1. 船上相遇：在去杭州的船上，匡超人结识头巾店商人景兰江，发现其不重举业而酷爱作诗，自称“名士”。
-    2. 结识赵雪斋：抵达杭州后，经景兰江引荐，匡超人认识了名望很高的医生兼诗人赵雪斋。
-    3. 酒店论辩：匡超人与景兰江、支剑峰、浦墨卿等人饮酒。众人围绕“中进士”的官员黄公和“享诗名”的布衣赵雪斋，谁的人生更值得羡慕展开了一场辩论。
-           辩论焦点：是追求科举功名（如黄进士，虽中进士但孤身一人），还是追求诗名和世俗幸福（如赵雪斋，虽无功名但儿孙满堂，诗名远扬）。
-           结论影响：景兰江提出“诗名比进士享名更多”的观点，让一直笃信科举是唯一出路的匡超人大为震惊，“才知道天下还有这一种道理”。</t>
-  </si>
-  <si>
-    <t>本章是匡超人人生的又一个转折点。他在功名初成之时，接连遭遇父亲离世和官场牵连，被迫离乡。在杭州，他首次接触到一个崇尚诗名、看似风雅实则空虚的“名士”圈子。这与他之前接受的马二先生的“举业至上”观念形成强烈对比，预示着他的思想和人生道路将发生新的、可能走向歧途的变化。</t>
-  </si>
-  <si>
-    <t>1.  匡超人
-       本章核心人物。在文瀚楼接手批阅考卷的工作，显示其才思敏捷。通过景兰江引荐，正式进入杭州的“名士”圈子，参加胡三公子寿宴和西湖诗会。
-       在接触中各色人等的言谈行为，开始影响他的观念和行为方式。
-2.  景兰江
-       头巾店商人，匡超人进入杭州文人圈的主要引路人。他带领匡超人参加胡三公子寿宴，并一同筹备、参与西湖诗会。
-3.  胡三公子（胡密之）
-       已故胡冢宰（吏部尚书）之子。虽家世显赫但为人胆小吝啬，是杭州名士们依附和打秋风的对象。本章中他举办寿宴，并作为西湖诗会的东道主（负责收钱和采买）。
-4.  赵雪斋
-       著名的“布衣诗人”，诗坛领袖。在胡三公子寿宴上最后压轴出场，在西湖诗会上也是核心人物。
-5.  卫体善、随岑庵
-       两位资深的文章选家（老明经）。在胡三公子寿宴上高谈阔论，批评马二先生的选本，宣扬其迂腐的“文章法则”论。
-6.  支剑峰、浦墨卿
-       诗会成员。支剑峰因在西湖诗会返城途中醉酒闹事，被盐捕分府当场革去方巾、锁拿问罪。
-7.  金东崖、严致中（严贡生）
-       在胡三公子寿宴上出现的其他文人。金东崖是退休官员，严致中则好炫耀京城关系。
-8.  文瀚楼主人
-       为匡超人提供批阅考卷的工作机会，并对其效率大加赞赏。</t>
-  </si>
-  <si>
-    <t>1.  匡超人批阅考卷，初显才名
-    参与者：匡超人、文瀚楼主人
-    事件：
-    1. 文瀚楼主人请匡超人批阅三百多篇考卷，要求半个月完成。
-    2. 匡超人才思敏捷，日夜赶工，仅用六天便全部批完，且质量获赞，得到选金和样书承诺。其效率远超前人（如马二先生）。
-2.  胡三公子寿宴，初识名士圈
-    参与者：匡超人、景兰江、胡三公子、赵雪斋、卫体善、随岑庵、支剑峰、浦墨卿、金东崖、严致中等。
-    事件：
-    1. 引荐赴宴：景兰江带匡超人去为胡三公子祝寿，途中说明胡三公子虽家世好但势利胆小，全靠结交赵雪斋等名士撑门面。
-    2. 寿宴群像：
-           宴会上聚集了杭州各类“名士”，如卫体善、随岑庵两位老选家，他们高谈阔论，贬低马二先生的选本，宣扬迂腐的“文章法则”。
-           赵雪斋最后压轴到场，排场很大，显示其地位。
-           此次宴会让匡超人更深入地观察了这个圈子的虚荣与空洞。
-3.  西湖诗会，丑态百出
-    参与者：匡超人、景兰江、胡三公子、赵雪斋、卫体善、随岑庵、支剑峰、浦墨卿等九人。
-    事件：
-    1. 筹备显吝啬：胡三公子作为东道主负责采买，其吝啬本性暴露无遗（戳鸭子验肥、为馒头价钱吵架、打包剩菜剩米）。
-    2. 作诗附风雅：众人在和尚庙举行诗会，拈阄分韵作诗。匡超人为不丢面子，临时自学《诗法入门》，竟也做得不错，甚至觉得比卫、随二人的陈词滥调更好。
-    3. 归途生事端：诗会结束返城已晚，支剑峰大醉，口出狂言，被盐捕分府官员认出其巡商身份，因僭戴方巾、黑夜酗酒被当场锁拿。景兰江和匡超人见机溜走。</t>
-  </si>
-  <si>
-    <t>本章通过批卷、寿宴、诗会三件事，生动描绘了杭州所谓“名士”圈的庸俗、虚荣与混乱。匡超人在这个环境中开始适应并崭露头角，他的聪明才智得到发挥（快速批卷、速成写诗），但也开始沾染虚荣习气，并目睹了圈中人的种种丑态（如胡三的吝啬、卫随的迂腐、支剑峰的落魄），为其日后性格的进一步转变埋下伏笔。</t>
-  </si>
-  <si>
-    <t>1.  匡超人
-       本章核心人物。正式投入潘三门下，参与其多项非法活动，生活境遇得到极大改善（得钱、娶妻、生子、进学）。最后得知潘三被捕，看到罪状后魂飞魄散。
-2.  潘三（潘自业）
-       布政司衙门吏员，实为市井恶棍。本章中他成为匡超人的“良朋”和实际教导者，带匡超人参与各种弄权牟利的勾当。最终因罪行败露被捕。
-3.  郑老爹
-       抚院衙门差役，忠厚人。其第三个女儿经潘三做媒，嫁与匡超人。
-4.  景兰江
-       旧日诗友。在本章末尾出现，告知匡超人潘三被捕的消息，并带他去看访牌和罪款单。
-5.  其他参与潘三非法活动者：
-       王老六、黄球：参与处理“荷花案”的差役和中间人。
-       郝老二：为“抢亲案”来求潘三写假婚书。
-       李四、金东崖：参与“替考案”的中间人和雇主。</t>
-  </si>
-  <si>
-    <t>1.  匡超人投入潘三门下
-    参与者：匡超人、潘三
-    事件：
-    1. 潘三找到匡超人，告诫他不要与景兰江等“名士”混在一起，认为那是“呆子”，并带他见识真实的社会门路。
-    2. 潘三让匡超人参与赌局抽头，并开始让他参与文书工作。
-2.  参与潘三的非法勾当
-    参与者：潘三、匡超人、王老六、黄球、郝老二等
-    事件：潘三同时处理几件非法事务，并让匡超人参与文书伪造：
-    1. 荷花案：处理官差捉拿的使女荷花，通过伪造公文（回批、朱签），将其截留转卖给财主胡家。
-    2. 抢亲案：乡人郝老二因抢亲引发官司，来求潘三写假婚书以作凭据。
-       匡超人在潘三指导下，书写了假婚书、假回批和假朱签。
-       潘三从中获利，并分与匡超人二十两银子。此后近两年，匡超人紧跟潘三，参与其事并分利，与旧日诗友疏远。
-3.  绍兴替考案
-    参与者：潘三、匡超人、李四、金东崖（雇主）、金跃（考生）
-    事件：
-    1. 金东崖欲为不通文墨的儿子金跃买秀才功名，通过李四找到潘三运作。
-    2. 潘三包办此事，索要五百两银子。他让匡超人充当枪手。
-    3. 考试当日，潘三安排匡超人扮作衙役（军牢），与真童生金跃在考场二门口互换身份，由匡超人入场替考。
-    4. 事成，金跃进学。潘三分给匡超人二百两银子作为笔资。
-4.  匡超人娶妻成家
-    参与者：匡超人、潘三、郑老爹及其女
-    事件：
-    1. 潘三用替考所得，资助并做媒，让匡超人与抚院衙门差役郑老爹的三女儿成婚。
-    2. 匡超人入赘郑家，后发现郑老爹正是当年他回乡时同船的忠厚长者，可谓“夙因”。
-    3. 潘三继续帮衬，为他们典屋居住。一年后，匡超人生下一女。
-5.  功名再进与潘三事发
-    参与者：匡超人、潘三、景兰江、蒋刑房
-    事件：
-    1. 双喜临门：
-           匡超人接到已升任给事中的老师李本瑛的信，邀他进京。
-           他回温州参加岁考，被宗师取为一等第一，并“题了优行”，贡入太学。
-    2. 乐极生悲：
-           正当匡超人准备衣锦还乡时，从景兰江处惊闻潘三昨夜被官府逮捕。
-           景兰江带匡超人至刑房亲戚家，看到了抚台衙门的访牌和潘三的罪款单。
-           款单上罗列了潘三包揽钱粮、私和人命、假雕印信、拐带人口、威逼人命、勾串代考等十几款大罪。
-           匡超人看后，“魂从顶门出去了”，意识到自己也深度卷入其中（尤其是替考案），大祸可能临头。</t>
-  </si>
-  <si>
-    <t>本章是匡超人人生的高峰与转折点。他通过攀附潘三，在物质生活和功名道路上达到了前所未有的顺利（发财、成家、进学）。然而，这一切是通过全面背离道德、参与违法犯罪换来的。潘三的突然被捕，如同晴天霹雳，预示着匡超人靠非法手段经营的“幸福生活”即将崩塌，为他命运的急转直下埋下伏笔。</t>
-  </si>
-  <si>
-    <t>1.  匡超人
-       本章核心人物。其性格进一步堕落，表现为：为攀高枝停妻再娶、对原配之死冷漠虚伪、对恩人潘三忘恩负义、在牛布衣等人面前狂妄自大、不懂装懂。
-2.  郑氏娘子
-       匡超人的原配妻子。被匡超人强行送回乐清乡下后，因不适应生活，郁郁寡欢，吐血而亡。
-3.  李给谏（李本瑛）
-       匡超人的老师，已升任给事中。赏识匡超人，并为他操办与自家外甥女的婚事。
-4.  辛小姐
-       李给谏的外甥女，在匡超人隐瞒婚史的情况下，成为他的第二任妻子。
-5.  潘三（潘自业）
-       虽在狱中未直接出场，但其命运是测试匡超人人品的试金石。匡超人拒绝探监，并说了许多冠冕堂皇的撇清之语。
-6.  牛布衣
-       一位穷困的老年诗人。在前往芜湖访友途中，与匡超人同船一段，后病逝于芜湖甘露庵。他的死引出了下回的新人物。
-7.  冯琢庵
-       与匡超人、牛布衣同船的新科举人，进京会试。
-8.  甘露庵老和尚
-       收留牛布衣居住，在牛布衣病中悉心照料，并在他死后为其料理后事，是个善良的人物。</t>
-  </si>
-  <si>
-    <t>1.  弃旧妻，攀高枝
-    参与者：匡超人、郑氏娘子、郑老爹、匡大、李给谏、辛小姐
-    事件：
-    1. 逼妻返乡：匡超人因怕潘三案牵连，急于离开杭州。他编造做官的理由，强行将妻子郑氏送回乐清乡下，不顾妻子和丈母娘的反对。
-    2. 停妻再娶：到京城后，老师李给谏欲将外甥女辛小姐嫁他。匡超人为攀附权贵，隐瞒已有妻室的事实，欣然入赘李府。
-    3. 原配身死：郑氏娘子在乡下因生活不惯、心中抑郁，吐血身亡。匡超人回杭州得知死讯，仅滴了几滴泪，便用虚伪的排场（如画追像、穿补服）来掩饰愧疚，并迅速用钱打发其兄料理后事，显得极其冷漠。
-2.  绝旧友，显势利
-    参与者：匡超人、景兰江、蒋刑房、潘三（幕后）
-    事件：
-    1. 蒋刑房受潘三之托，请匡超人去监狱探望。
-    2. 匡超人立刻摆出官架子，以“朝廷赏罚”、“官场之玷”等冠冕堂皇的理由严词拒绝，并声称潘三所为“就是我做地方官，我也是要访拿他的”，完全忘了昔日恩情。
-    3. 他只空口许诺将来若得官，再拿钱“帮衬”，实则彻底与潘三切割。
-3.  船上自夸，丑态毕露
-    参与者：匡超人、牛布衣、冯琢庵
-    事件：
-    1. 在北上京师的船上，匡超人与牛布衣、冯琢庵相遇。
-    2. 他大肆吹嘘自己的选本畅销全国，甚至供着“先儒匡子之神位”。
-    3. 被牛布衣指出“先儒”指已故儒者，他强词夺理，红着脸狡辩。
-    4. 他贬低恩人马二先生“理法有余，才气不足”，并宣称自己的选本“外国都有的”，极尽虚荣浮夸之能事。
-4： 牛布衣客死芜湖
-    参与者：牛布衣、甘露庵老和尚
-    事件：
-    1. 牛布衣与匡超人等人分别后，独自到芜湖寻友，寓居甘露庵。
-    2. 他因病不起，临终前将身后事（棺木、丧葬）和毕生诗稿托付给照料他的老和尚。
-    3. 牛布衣凄凉病逝，老和尚仗义为其料理后事，停柩庵中。他的诗稿和灵柩为后续情节埋下伏笔。</t>
-  </si>
-  <si>
-    <t>本章集中刻画了匡超人道德彻底沦丧的过程。他对发妻冷酷、对恩人负义、在文人面前狂妄无知，完全背离了最初孝顺朴实的形象，成为一个虚伪、势利、忘本的典型。与此同时，牛布衣的凄凉离世与之形成鲜明对比，展现了功名利禄场外另一种真实而悲怆的人生。匡超人的故事至此，其人格的堕落已达到了一个高潮。</t>
+    <t>1.  Qu Gongsun: The central figure of this chapter. As the grandson of the Prefect of Nanchang, he is a talented young man who visits the Lou residence bearing his grandfather's letter and a collection of his own poetic commentary. Recognized for his talent by Lu the Compiler, he ultimately becomes the Lu family's son-in-law.
+2.  Lu the Compiler: The key facilitator. A compiler from the Hanlin Academy who has taken leave to return to his hometown. Having no sons, he was determined to find a worthy husband for his talented and beautiful daughter. Impressed by Qu Gongsun's abilities during the banquet at the Lou residence, he proactively arranged for matchmakers to intervene.
+3.  Lou's Third &amp; Fourth Sons: Important introducers and organizers. They are Qu Gongsun's maternal uncles and served as the bridge connecting him to Lu the Compiler. They hosted Gongsun, arranged a banquet for Lu, facilitated the matchmaking, and ultimately oversaw the wedding arrangements.
+4.  Chen Hefu: Matchmaker. A self-proclaimed master of various divinatory arts. Commissioned by Lu, he formally proposed to the Lou family and handled matters like astrological compatibility and selecting auspicious dates.
+5.  Niu Buyi: Another matchmaker. An old acquaintance of the Lou household, he had once served alongside Gongsun Qu's father. Acting as the Lou family's matchmaker during the proposal, he accompanied Chen Hefu to the Lu residence.
+6.  Miss Lu: The prospective bride. Though never appearing directly, her “virtuous character, gentle disposition, and exceptional beauty and talent” motivated Lu Bianxiu's choice of son-in-law and formed the premise for the events of this chapter.</t>
+  </si>
+  <si>
+    <t>The central plot of this chapter is “The Marriage Alliance Between Qu Gongsun and Lady Lu,” which unfolds through the following key stages:
+1.  First Encounter on the Boat and Groundwork at the Banquet
+    Participants: The Young Master of the Lou Clan, Lu the Compiler
+    Event: The Young Master of the Lou Clan coincidentally meets Lu the Compiler aboard a homecoming vessel and is invited to share a drink. During the banquet, Lu the Compiler expresses his concerns about his childlessness and his daughter's marriage prospects, laying the groundwork for the subsequent search for a suitable husband.
+2.  Qu Gongsun Visits Relatives, Demonstrates Talent
+    Participants: The Young Master of the Lou Family, Qu Gongsun, Niu Buyi
+    Event: Qu Gongsun arrives at the Lou residence, presenting his hand-engraved anthology of poetry commentary. He receives high praise from his two uncles. The arrival and reminiscences of Niu Buyi further highlight Qu Gongsun's scholarly heritage and status as a descendant of distinguished literati.
+3.  Banquet at the Lou Residence, Lu the Compiler Seeks a Son-in-Law
+    Participants: Lou's son, Lu the Compiler, Qu Gongsun
+    Event: This pivotal event occurs when the Lou residence hosts a banquet for Lu the Compiler, with Qu Gongsun serving as host. During the feast:
+           Lu the Compiler meticulously inquires about Qu Gongsun's birth chart.
+           The two young masters highly praised Qu Gongsun's poetry and talent.
+    Editor Lu was thoroughly impressed with Qu Gongsun and had already chosen him as his daughter's husband in his heart.
+4.  Chen Hefu Mediates, Engagement Arranged
+    Participants: Chen Hefu, Lou Family's Young Master, Editor Lu (behind the scenes), Qu the Prefect (Correspondence)
+    Event: Lu the Compiler entrusted Chen Hefu to formally propose marriage to the Lou family. The Lou family's son wrote to seek consent and authorization from Qu Gongsun's grandfather (Qu the Prefect). Both sides exchanged letters of consent and marriage contracts through matchmakers (Chen Hefu and Niu Buyi), completing the betrothal ceremony.
+5.  Marriage by Affinity, Wedding Turmoil
+    Participants: Qu Gongsun, Lu the Compiler, Young Master Lou, Chen Hefu, numerous guests, and servants.
+    Event: This climactic incident unfolded when Lu the Compiler, reluctant to part with his daughter, arranged for Qu Gongsun to marry into his family. During the lavish wedding, a series of mishaps occurred:
+           Mouse Falls on Banquet: A rat plummeted from the rafters into a bowl of bird's nest soup, staining the groom's ceremonial attire.
+           Servant's Mishap: A country servant, mesmerized by the theatrical performance, smashed bowls and plates, kicked off his studded shoes, and overturned the pastries and soup on Chen Hefu's table.
+Significance: These inauspicious minor incidents cast a shadow and suspense over this seemingly perfect marriage, hinting at potential future complications in the unfolding story.</t>
+  </si>
+  <si>
+    <t>In summary, this chapter presents a coherent sequence of events that fully recounts how Lu Bianxiu, impressed by Qu Gongsun's talents, chose him as his son-in-law, and details the process by which both families arranged the wedding. Simultaneously, the lively wedding ceremony subtly concealed metaphors for the future.</t>
+  </si>
+  <si>
+    <t>1.  Miss Lu: The central figure of this chapter. She is a talented woman raised by her father as if she were a son, proficient in the rigid eight-legged essay format. She fervently hopes her husband will achieve fame and fortune through the imperial examinations. Her ideals clash sharply with her husband's pragmatism, forming the source of conflict in this chapter.
+2.  Qu Gongsun: The other party in the conflict. A renowned scholar with a passion for poetry and literature, he holds no interest in the rigid, formulaic essays required for the imperial examinations, dismissing them as “mundane affairs.” His attitude deeply disappoints Miss Lu.
+3.  Mr. Lu, the Compiler: Miss Lu's father. A staunch supporter of the imperial examination system, he channels his unfulfilled aspirations into his daughter due to having no sons. His frustration over his son-in-law's reluctance to pursue scholarly studies leaves him disheartened and ill.
+4.  Mrs. Lu: Attempts to mediate between her daughter and son-in-law, urging her daughter not to be overly stubborn. Emotionally, however, she favors her son-in-law more.
+5.  Nanny: Miss Lu's personal attendant. She comforts her mistress and proposes a future solution—to educate the young master into a capable man.
+6.  Yang Zhizhong: A “renowned scholar” admired by the Lou family's young master. In the latter part of this chapter, he serves as a catalyst, recommending the next “great man” to the Lou family's young master, propelling the subsequent plot.
+7.  Third and Fourth Young Masters Lou: Noble sons renowned for hospitality and respect for talent. Continuing their pursuit of scholarly connections, they visit Yang Zhizhong in this chapter to hear his new recommendation.
+8.  Zou Jifu: A longtime servant of the Lou household, serving as liaison between the Lou young masters and Yang Zhizhong.</t>
+  </si>
+  <si>
+    <t>The central plot of this chapter revolves around “the family conflict sparked by Miss Lu's disdain for Qu Gongsun's neglect of his scholarly pursuits,” comprising the following events:
+1.  The Talented Bride Tests Her Groom, Gongsun Reveals His True Colors
+    Participants: Miss Lu, Qu Gongsun
+    Event: Shortly after their wedding, Miss Lu, convinced Qu Gongsun had achieved scholarly success, First, she observed his writing skills by reading his essays together. Later, unable to contain herself, she posed an essay topic in her father's name: “Cultivate Yourself Before Managing Your Household,” challenging Gongsun to compose it. Gongsun flatly refused, claiming he was “not particularly skilled” in this area and dismissing the eight-legged essay as “mundane affairs.” This action fully exposed his attitude toward the imperial examinations.
+2.  Dreams Shattered, Marital Rift Deepens
+    Participants: Miss Lu, Qu Gongsun, Foster Mother, Lady Lu
+Event: Upon realizing her husband was not the “talented scholar” she had envisioned, Miss Lu felt she had entrusted her life to the wrong man. She became perpetually gloomy, causing a rift in their marriage. Despite repeated attempts by the Foster Mother and Lady Lu to reconcile them, Miss Lu's deeply ingrained belief that “a good woman does not wear her wedding attire again” made the conflict irreconcilable.
+3.  The Imperial Examiner's Illness from Disappointment
+    Participants: Imperial Examiner Lu, Qu Gongsun
+    Event: Imperial Examiner Lu personally set the examination questions for his son-in-law. Qu Gongsun's hastily composed essay was filled with poetic flourishes, deviating from the “proper” eight-legged essay format. Deeply disappointed, Lu brooded over his frustration. Compounded by his wife's disapproval of his plan to take a concubine to perpetuate the scholarly lineage, he suffered a stroke and fell gravely ill.
+4.  The Lou Family's Young Master Visits Yang, New Talents Await Introduction
+    Participants: Young Master Lou, Qu Gongsun, Zou Jifu, Yang Zhizhong
+    Event: While Qu Gongsun faced domestic troubles, the Lou family's young master, guided by Zou Jifu, finally succeeded in visiting Yang Zhizhong. Though impoverished, Yang Zhizhong held himself in high esteem. After receiving courteous treatment, he recommended to the two young masters a friend he deemed even more gifted at governing the world (Quan Wuyong from the previous chapter), setting the stage for future developments.</t>
+  </si>
+  <si>
+    <t>In summary, this chapter employs a delicate narrative touch to depict the marital crisis between the talented couple Miss Lu and Qu Gongsun, stemming from their divergent value systems (imperial examinations and official success versus the refined lifestyle of literati). Interwoven with this is the subplot of the young master of the Lou household continuing his search for “virtuous scholars,” revealing the differing attitudes toward “official success” and “scholarship” held by individuals of varying social strata and personalities within the society of that era.</t>
+  </si>
+  <si>
+    <t>1.  The Third and Fourth Sons of the Lou Family: The central organizers of this chapter. These noble sons, generous and hospitable, were devoted to emulating ancient sages in their respect for scholars and heroes. All events in this chapter revolve around their recruitment and hospitality toward “renowned scholars” and “chivalrous heroes.”
+2.  Quan Wuyong: One of the invited “wise men.” Recommended by Yang Zhizhong, he is described as possessing “the wisdom of Guan and Yue, and the scholarship of Cheng and Zhu.” Yet his actual demeanor proves eccentric, pedantic, and hapless (e.g., his mourning cap is mocked, he collides with an official and gets locked up), failing to live up to his reputation.
+3.  Zhang Tiebi: An invited “chivalrous knight.” He claims exceptional martial prowess and a reputation for upholding justice, stunning the assembly at the Lou residence with his swordplay. At the chapter's climax, he orchestrates the “Head Meeting” deception, serving as the central figure in the pivotal event.
+4.  Yang Zhizhong: The introducer and honored guest. He recommended Quan Wuyong to the Lou family's young master and participated in the Yingdu Lake gathering. He later clashed with Quan Wuyong over a minor financial dispute.
+5.  Qu Gongsun: Participant. As the Lou family's nephew, he also attended the Yingdu Lake gathering.
+6.  Niu Buyi and Chen Hefu: Participants. These literati and idlers associated with the Lou household were also invited, lending the banquet an air of “literary distinction.”
+7.  Yang Laoliu: Yang Zhizhong's foolish son. His appearance (stealing money, disrupting the banquet) indirectly highlights the chaos and depravity within this circle of “literary figures.”
+8.  Lu, the Compiler: An outside critic. Upon learning of the incident, he condemned the Lou family's young master for neglecting his duties and engaging with such individuals as “swaggering arrogance,” representing the orthodox literati's contempt for such activities.</t>
+  </si>
+  <si>
+    <t>The core plot of this chapter revolves around “the young master of the Lou household gathering renowned scholars and heroes for a gathering that appeared refined yet proved absurd, culminating in a deception.” It unfolds through the following events:
+1.  Seeking Quan Wuyong, Hearing of His True Appearance
+    Participants: Young Master Lou, Yang Zhizhong, Family Member Huan Cheng, Passengers on the Boat
+    Event: The young master of the Lou household sends his retainer Huan Cheng to Xiao Mountain to invite Quan Wuyong. On the boat, Huan Cheng overhears two passengers from Xiao Mountain discussing Quan Wuyong, revealing him to be a failed scholar, destitute and swindling in the countryside—laying negative groundwork for his later appearance.
+2.  Quan Wuyong Enters the City, Making a Spectacle of Himself
+    Participants: Quan Wuyong, Zhang Tiebi, Wei Tingguan
+    Event: During his journey into town, Quan Wuyong's reckless behavior leads to his mourning cap being snatched by a villager's pole. He then collides with an official's sedan chair and nearly gets arrested. Fortunately, his old acquaintance Zhang Tiebi intervenes, saving him by declaring him “an honored guest of the Lou household.” This incident vividly portrays his pathetic and comical image.
+3.  Zhang Tiebi's Display of Skill: Revealing “Divine Powers” at the Night Banquet
+    Participants: Zhang Tiebi, Lord Lou's Son, Quan Wuyong, Yang Zhizhong, et al.
+    Event: At Lord Lou's night banquet, Zhang Tiebi performed a sword dance. The sword's flashes were dazzling, its chill piercing, and he could even make water splash without wetting himself, winning the admiration of all present. This performance successfully cultivated his illusion as an “unparalleled knight-errant,” laying the groundwork for trust in his subsequent deceptions.
+4.  The Grand Gathering at Yingdu Lake: A Convergence of Eminent Scholars
+    Participants: The Young Master of the Lou Manor, Qu Gongsun, Niu Buyi, Yang Zhizhong, Quan Wuyong, Zhang Tiebi, Chen Hefu, Yang Laoliu
+    Event: This chapter's central event. The Young Master of the Lou Manor invited numerous guests aboard large vessels on Yingdu Lake. Amidst brilliant lights and grand spectacle, they drank, composed poetry, and practiced swordsmanship. While appearing as an elegant “grand gathering,” it actually assembled a motley crew of eccentric, pretentious figures.
+5.  Zhang Tiebi Presents a Head, Unveiling the Deception
+    Participants: Zhang Tiebi, Young Master Lou
+    Event: This marks the climax of the chapter. Late at night, Zhang Tiebi suddenly appeared carrying a blood-soaked leather pouch (claiming it held the head of his enemy). He demanded a loan of five hundred taels of silver from Young Master Lou to repay a debt of gratitude, promising to return and dissolve the head into water using a special potion. The gullible young master generously hands over the silver. Zhang Tiebai leaves with the pouch and the coins. This incident fully exposes the ridiculous and pitiful nature of the young master and his ilk—blinded by empty fame and incapable of discerning truth from falsehood.</t>
+  </si>
+  <si>
+    <t>In summary, this chapter employs a series of events—the “search for a sage,” the “clown's entry into the city,” the “night banquet display of skills,” the “grand gathering on the lake,” and the “nighttime presentation of the head”—to progressively depict how the ‘literati’ circle cultivated by the young master of the Lou household escalates from farce into outright deception. It delivers a scathing satire on the vanity and blindness inherent in the purported “honoring of scholars and talents.”</t>
+  </si>
+  <si>
+    <t>1.  Master Ma Er (Ma Chunshang): The central figure of this chapter. A sincere, enthusiastic, and highly skilled exam essay compiler. He instructs Qu Gongsun on the importance of preparing for the imperial examinations and steps forward to offer generous financial support during his time of crisis.
+2.  Qu Gongsun: A character present throughout the narrative. He evolves from a poet indifferent to fame and fortune into someone who begins to value the imperial examinations. His involvement in a legal case stemming from possessing “imperial stolen goods” at home places him at the center of the events.
+3.  The Constable: A key instigator. Cunning and experienced, he exploited information about the pillow box provided by Huan Cheng and Shuanghong to orchestrate and execute the extortion scheme against Qu Gongsun.
+4.  Huan Cheng: A former servant of the Lou household and the direct instigator of the incident. He abducted Qu Gongsun's maid Shuanghong and, guided by the constable, attempted to blackmail his former master using the pillow box's secret.
+5.  Shuanghong: Qu Gongsun's maid. She inadvertently revealed the pillow box's origins to Huan Cheng (linked to Wang Hui's defection to Prince Ning), becoming the spark that ignited the entire blackmail scheme.
+6.  The Two Young Masters of the Lou Household: Transitional figures. At the chapter's start, their “Human Head Meeting” deception is exposed (the pig's head incident). Immediately after, Quan Wuyong is arrested by constables for abducting a nun. These events leave them disillusioned, prompting them to shut their doors to visitors—marking the end of the Lou household's farce of “honoring scholars and talents.”</t>
+  </si>
+  <si>
+    <t>This chapter's plot unfolds through two intertwining threads: the complete collapse of the literati circle at the Lou residence, and the crisis faced by Qu Gongsun, with Master Ma Er coming to his aid.
+1.  The “Human Head Meeting” Scam Exposed and Quan Wuyong's Arrest
+     Participants: The young master of the Lou household, various guests (including Niu Buyi, Chen Hefu, Qu Gongsun, etc.), constables, Quan Wuyong, Yang Zhizhong
+     Events: Zhang Tiebi failed to return as promised. After the leather sack began to stink, the young master of the Lou household opened it to find a pig's head inside. Simultaneously, constables from Xiao County arrived to arrest Quan Wuyong for the “abduction of a nun” case. These consecutive events left the Young Master of the Lou Manor utterly disgraced and disheartened, causing him to seclude himself thereafter. This incident concluded the climax of the previous chapter and ended the storyline of the Young Master recruiting “renowned scholars.”
+2.  Master Ma Er Discusses the Imperial Examinations, Enlightening Qu Gongsun
+    Participants: Master Ma Er, Qu Gongsun
+    Event: Qu Gongsun befriends Master Ma Er, an expert in examination strategies. Master Ma Er's profound discourse on “the imperial examinations being the bedrock upon which scholars of past and present establish their lives” proved deeply penetrating. It jolted Qu Gongsun, who had long scorned the rigid eight-legged essay format, out of his complacency. He began reevaluating his life's direction. The two became close friends.
+3.  The Pillowbox Secret Leaks, Triggering an Extortion Crisis
+    Participants: Shuanghong, Huan Cheng, Constables
+    Incident: Shuanghong, the maid abducted by Huan Cheng, inadvertently revealed the origins of the Qu family's antique pillow box—its connection to Wang Hui, a wanted criminal of the imperial court. The seasoned constable, recognizing this as a prime opportunity for extortion, incited and orchestrated Huan Cheng to threaten Qu Gongsun. This incident forms the central conflict of the latter half of this chapter.
+4.  Master Ma Er Resolves the Crisis Through Generous Sacrifice
+    Participants: Master Ma Er, Constable
+    Event: The constable approaches Master Ma Er, a close associate of Qu Gongsun, threatening to deliver a petition accusing him of “aiding rebels.” To protect his friend, Ma Erxiansheng resolves to pay off the trouble, using his own silver to redeem the pillow box for Qu Gongsun and settle the matter. This episode vividly showcases Ma Erxiansheng's generous and principled character, starkly contrasting with the hypocritical “literati” at the Lou residence.</t>
+  </si>
+  <si>
+    <t>In summary, this chapter concludes the farce of the pretentious scholar and the fake knight-errant through the revelations of “The Pig's Head Unmasked” and “Quan Wuyong's Arrest.” Simultaneously, the “Pillow-Box Incident” introduces the genuine Confucian scholar Ma Er, showcasing his pragmatic views on the imperial examinations and his true character of selflessly spending money for a friend's sake, thereby driving the protagonist Qu Gongsun's ideological transformation.</t>
+  </si>
+  <si>
+    <t>1.  Mr. Ma Er (Ma Chunshang): The absolute central figure of this chapter. His character is fully revealed here:
+       As a friend: He is sincere and chivalrous, sparing no expense to use his entire savings to resolve Qu Gongsun's pillow-box crisis.
+       As a scholar: He is eccentric yet devout, displaying his obsession with official rank and reverence for imperial authority during his West Lake excursion.
+       As an ordinary man: He is financially strained, salivating at the sight of delicacies by the West Lake, appearing both down-to-earth and somewhat comical.
+2.  Qu Gongsun: A significant supporting character. He is the beneficiary of the pillow box incident, deeply moved by Mr. Ma Er's chivalrous act. His attitude serves as a foil, highlighting the nobility of Mr. Ma Er's character.
+3.  The Constable: Key executor. Cunning and worldly-wise, he skillfully navigates between Master Ma Er and Huan Cheng. Through threats, bribes, and forging marriage documents, he ultimately facilitates the deal while profiting personally.
+4.  Huan Cheng and the Twin Reds: Aftermath of the incident. As the instigators of the extortion scheme, they are manipulated by the constable in this chapter and ultimately dismissed, bringing the pillowbox incident to a close.
+5.  Miss Lu: A supporting character. Upon hearing of Mr. Ma Er's righteous deed, she and her husband express admiration, reinforcing their recognition of “honorable gentlemen” and echoing her earlier disdain for the Lu mansion's circle of literati.
+6.  Mysterious Figure (Hong Hanxian): Introduction of a new character. The white-bearded elder appearing at the end of this chapter in the Dingxian Temple, with an ethereal, otherworldly demeanor, initiates conversation with Mr. Ma Er, laying the groundwork for the next chapter's narrative.</t>
+  </si>
+  <si>
+    <t>This chapter unfolds in two distinct parts: the first resolves old conflicts, while the second launches a new adventure.
+Part One: Generous and Righteous, Resolving the Crisis
+1.  Master Ma Empties His Coffers to Redeem the Chest
+    Participants: Master Ma, Constable
+    Event: Mr. Ma bargains with the constable, ultimately forfeiting his entire savings—ninety-two taels earned through arduous labor—and collaborates with the constable to forge a hundred-tael marriage contract. This enables him to redeem the pillow box, designated as “imperial stolen goods.” This climactic event vividly demonstrates Mr. Ma's unwavering loyalty to his friend.
+2.  Truth Revealed, Gongsun's Gratitude
+    Participants: Mr. Ma Er, Qu Gongsun, Miss Lu
+    Event: Mr. Ma Er fully disclosed the circumstances of redeeming the box and declared no repayment was needed. Upon learning this, Qu Gongsun was moved to tears and performed a deep bow in gratitude. The couple held Mr. Ma Er's character in the highest esteem. This event affirmed and honored Mr. Ma Er's righteous deed.
+3.  Farewell to a Dear Friend, Journey to Hangzhou
+    Participants: Mr. Ma Er, Qu Gongsun
+    Event: With the crisis resolved, Mr. Ma Er bids farewell to Qu Gongsun and heads to Hangzhou to continue his book-selection endeavors. Qu Gongsun sees him off with deep reluctance. This event concludes Mr. Ma Er's storyline in Jiaxing, ushering him onto a new stage—West Lake in Hangzhou.
+Part Two: Touring West Lake, First Encounter with an Immortal
+4.  Master Ma's Lake Tour
+    Participants: Master Ma
+    Event: This chapter's highlight. Penniless, Master Ma could afford only noodles, tea, and pastries while touring West Lake, salivating at the sight of delicacies. Indifferent to women and ignorant of refinement, he worshipped the emperor's calligraphy and yearned for fame and fortune. This passage humorously portrays a quaint, honest, impoverished, yet endearing scholar—a stark contrast to the lake's opulent splendor.
+5.  Encountering an Immortal at Ding Xian Shrine
+    Participants: Mr. Ma Er, Mysterious Elder (Honghan Xian)
+    Event: While visiting Dingxian Temple on Mount Wu, Ma Er was about to draw a fortune slip to inquire about his academic prospects when an ethereal, white-bearded elder approached him, claiming to teach him the path to wealth. This incident serves as the chapter's climax and conclusion, setting the stage for the subsequent tale of the “immortal's” scheme.</t>
+  </si>
+  <si>
+    <t>In summary, this chapter masterfully crafts the noble character of Mr. Ma Er through the “redemption box” incident, showcasing his generosity and sense of justice. It then delicately portrays his endearing yet awkward nature as a clumsy scholar during the “lake excursion” scene. Finally, the “encounter with immortals” conclusion skillfully introduces new suspense, propelling the plot forward.</t>
+  </si>
+  <si>
+    <t>1.  Master Ma Er (Ma Chunshang): The central figure of this chapter. He is an honest, kind-hearted, yet somewhat pedantic scholar who earns his living by editing and compiling imperial examination essays.
+       Character traits: Kind-hearted and enthusiastic, generous and principled, deeply devoted to the imperial examination system as a path to officialdom, prone to gullibility (e.g., initially deceived by the naive immortal Hong).
+       Role in this chapter: Experiences two major events—“encountering an immortal and exposing the scam” and “befriending Kuang Chaoren and offering righteous assistance”—serving as the central thread linking the chapter's plot.
+2.  Hong Hanxian: A sophisticated con artist posing as a 300-year-old immortal.
+       Character traits: Skilled at scheming, cunning and calculating, deliberately creating an air of mystery.
+       Accomplices: His son, two nephews, and a son-in-law (posing as his “attendant”).
+       Targets: Mr. Ma Er (used as a stepping stone and credibility guarantee), Young Master Hu San (the true target).
+       Role in this chapter: Creates the primary dramatic conflict in the first half—the “silver refining” scam.
+3.  Kuang Chaoren (Kuang Jiong): A young scholar born into poverty, wandering in a foreign land, yet diligent and studious.
+       Character traits: Filial, studious, quick-witted, grateful (in this chapter).
+       Role in this chapter: He is the core of the latter half, meeting Mr. Ma Er and receiving his wholehearted assistance, marking a turning point in his life.
+4.  Third Young Master Hu (Hu Zhen): Son of the late Minister Hu, greedy and superstitious.
+       Character traits: Obsessed with money, easily swayed.
+       Role in this chapter: Primary target of Hong Hanxian's fraudulent scheme.
+5.  Old Man Zheng: A reasonable constable encountered aboard the boat carrying Kuang Chaoren home.
+       Role in this chapter: Provides a social commentary on “filial disobedience,” contrasting with Kuang Chaoren's devotion, and safely escorts him back to his hometown.</t>
+  </si>
+  <si>
+    <t>1.  Encountering Immortals and Deception
+    Participants: Mr. Ma Er, Immortal Hong Han, Young Master Hu San)
+    Event: Having exhausted his funds, Mr. Ma II sought fortune-telling at Dingxian Shrine and encountered Hong Hanxian.
+        1.  Demonstration of Divine Powers: Claiming to be an immortal, Hong Hanxian led Mr. Ma II to his opulent residence. There, he displayed his “poetry”—supposedly composed over three centuries—and documented interactions with government officials, gaining Mr. Ma's initial trust.
+        2.  “Turning Coal into Silver”: Hong Hanxian gifts Ma Erxiansheng “black coal.” When Ma experiments with it at home, it burns into eighty to ninety taels of silver, solidifying his belief in Hong's divine status.
+        3.  Introducing the Target: Hong Hanxian had Ma Erxian pose as his cousin to meet with Third Young Master Hu. They planned to swindle ten thousand taels of silver from Hu under the pretense of refining a “silver mother” (a mythical substance purported to turn copper and tin into gold).
+        Climax and Conclusion:
+        1.  The Scam Unravels: Just as the scheme was about to unfold, Hong Hanxian suddenly died of illness. His son-in-law revealed the truth to Mr. Ma Er: “Black coal” was merely silver blackened with soot, and they were a gang of swindlers who had befriended Mr. Ma Er to leverage his reputation and gain Hu San Gongzi's trust.
+        2.  Mr. Ma Er's Response: Mr. Ma Er realized the deception, but being kind-hearted, he did not dwell on it. Instead, he contributed funds to arrange Hong Hanxian's funeral.
+2.   Aiding Kuang in Righteousness
+     Participants: Mr. Ma Er, Kuang Chaoren
+     Event: Mr. Ma Er encounters Kuang Chaoren at a tea pavilion, who is painstakingly studying the articles Mr. Ma Er compiled while deciphering characters.
+         Course of Events:
+         1.  Acquaintance and Sympathy: Mr. Ma Er conversed with Kuang Chaoren, learning of his impoverished background, his drifting to the provincial capital, and his father's grave illness at home, which left him deeply distressed. Mr. Ma's compassion was stirred.
+         2.  Assessment and Guidance: Mr. Ma tests Kuang Chao-ren's writing skills, recognizing his talent but noting deficiencies in logic and structure. He meticulously instructs him on compositional techniques.
+         3.  Generous Support: Mr. Ma not only waives his tutoring fee but also voluntarily gifts Kuang Chao-ren ten taels of silver for his journey home and to establish a household. He further provides an old cotton coat and shoes to ward off the cold.
+         4.  Brotherhood and Parting Words: Master Ma and Kuang Chaoren swore brotherhood as sworn brothers. Before parting, Master Ma imparted profound “ideological guidance,” emphasizing that “passing the imperial examinations is paramount.” He asserted that only through scholarly achievement could one bring honor to one's ancestors and family, which constituted the greatest filial piety (“glorifying one's parents and bringing fame to the family” was the ultimate filial duty).
+         Outcome: Overwhelmed with gratitude, Kuang Chao-ren boarded a boat for home. En route, he encountered Old Man Zheng and heard tales of wealthy scholars' filial neglect, which only strengthened his resolve to honor his parents and pursue learning. Ultimately, he returned safely to his hometown.</t>
+  </si>
+  <si>
+    <t>This chapter recounts how Master Ma Er encountered the fake immortal Hong Hanxian, exposed his “turning coal into silver” scam, and then honorably arranged his funeral. On his return journey, he encounters Kuang Chaoren, a destitute filial son stranded in the provincial capital. Moved by the youth's devotion to his parents and his diligence in studies, Master Ma generously gifts him silver and clothing, swears brotherhood with him, earnestly advises him to prioritize his imperial examinations, and ultimately sponsors his journey home to fulfill filial duties. The story portrays Mr. Ma Er's character as eccentric yet kind and righteous, while also showcasing Kuang Chaoren's initial image of simple filial piety and brotherly devotion.</t>
+  </si>
+  <si>
+    <t>1.  Kuang Chaoren (Kuang Jiong)  
+      The central figure of this chapter, known for his filial piety and diligence. After returning home, he devoted himself entirely to caring for his ailing father, working tirelessly day and night (slaughtering pigs, grinding tofu, attending to daily needs) while persistently pursuing his studies.  
+      His devotion to his father and his hard work earned him the admiration of the county magistrate, who granted him permission to take the county examination, where he achieved the top rank (first place).
+2.  Grandfather Kuang  
+      Kuang Chaoren's father, bedridden due to illness exacerbated by family property disputes. His condition improved under Kuang Chaoren's attentive care.
+3.  Village Headman Pan  
+      The village headman who recognized Kuang Chaoren's potential. He read Kuang's face and prophesied, “The star of nobility shines upon your destiny.” After a fire, he helped the family find shelter.
+      When the magistrate inquired about the night reader, he strongly recommended Kuang Chaoren.
+4.  Magistrate Li Benying  
+      Magistrate of Yueqing County. Hearing Kuang Chaoren reading at night while passing by, he learned of his family circumstances and filial devotion. He proactively encouraged him to take the imperial examinations, providing financial support and promotion.
+5.  Elder Brother Kuang and Sister-in-Law  
+      Kuang Chaoren's elder brother and sister-in-law, who had separated from their father and lived in hardship. They often complained about Kuang Chaoren but fled the fire with the rest of the family.
+6.  Uncle from the Third Branch  
+      A relative of the Kuang family who pressured Kuang Taigong to sell his house, serving as an external catalyst for the family conflict.</t>
+  </si>
+  <si>
+    <t>1.  Kuang Chaoren Returns Home to Honor His Parents  
+    Participants: Kuang Chaoren, Kuang Taigong, Mother, Elder Brother and Sister-in-law  
+    Events:  
+    1. Upon returning home to find his father gravely ill, Kuang Chaoren tenderly cared for him, kneeling nightly to assist his father's bodily needs while slaughtering pigs and grinding tofu during the day to sustain their livelihood.  
+    2. He tactfully defused a land dispute with Uncle Sanfang, persuading him with reason and temporarily averting conflict.
+2.  Village Fire and Relocation  
+    Participants: The Kong family, Pan Baozheng, the monk  
+    Events:  
+    1.  The entire village was engulfed in flames. Kong Chaoren rushed to rescue his parents first, while his elder brother focused solely on salvaging goods.  
+    2.  Pan Baozheng stepped in to assist, arranging for the Kong family to temporarily stay at the monk's temple before securing a rented dwelling.
+3. County Magistrate's Recognition and Encouragement  
+    Participants: Magistrate Li, Pan Baozheng, Kuang Chaoren  
+    Events:  
+    1. Hearing nighttime study sounds, Magistrate Li inquires with Pan Baozheng and learns of Kuang Chaoren's filial devotion and diligent studies.  
+    2. Magistrate Li issues an edict encouraging Kuang Chaoren to take the examinations, pledging financial support.
+4.  Kuang Chaoren Tops the County Examinations  
+    Participants: Kuang Chaoren, Magistrate Li, Xue Dao  
+    Events:  
+    1. Kuang Chaoren took the county examinations and was selected as the top candidate by the magistrate.  
+    2. The magistrate presented him with silver as financial aid and praised his filial devotion and scholarly talent before Xue Dao, securing him opportunities for further education.</t>
+  </si>
+  <si>
+    <t>This chapter portrays Kuang Chaoren as a filial son from a humble background who perseveres in his studies and encounters a benefactor, ultimately achieving top honors in the imperial examinations. It simultaneously highlights Magistrate Li Benying's role as a virtuous administrator who values filial piety and talent, laying the groundwork for Kuang Chaoren's subsequent life-changing events.</t>
+  </si>
+  <si>
+    <t>1.  Kuang Chaoren
+       The central figure of this chapter. After passing the provincial examination, he returned home only to face a series of tragedies: his father's death, the county magistrate's dismissal, and being forced to flee his hometown to avoid trouble. Ultimately, he journeyed to Hangzhou.
+       On the boat to Hangzhou and upon arrival, he befriended local literati such as Jing Lanjiang and Zhao Xuezhai. His first exposure to this circle of poets—radically different from the “scholarly pursuits” advocated by Master Ma Er—began to challenge his worldview.
+2.  Grandfather Kuang
+       Kuang Chaoren's father. His illness worsened after Kuang Chaoren passed the provincial examination. On his deathbed, he admonished Kuang Chaoren to uphold virtue and avoid worldly ambition before passing away.
+3.  Pan Baozheng
+       The village constable. He consistently aided the Kuang family. When Kuang Chaoren needed to evade trouble, Pan Baozheng wrote a letter of recommendation to his brother, Pan Sanye, who served as a clerk in the Provincial Administration Office in Hangzhou.
+4.  Magistrate Li Benying
+       Kuang Chaoren's teacher. Though he never appears directly, his dismissal from office is pivotal to advancing the plot. The people staged a market strike to plead for his reinstatement, and Kuang Chaoren, closely associated with him, was implicated and forced into exile.
+5.  Jing Lanjiang
+       A headscarf merchant in Hangzhou who styled himself a “literary gentleman.” He served as Kuang Chaoren's guide into Hangzhou's poetry circles, introducing him to an alternative life philosophy centered on gaining renown through poetry.
+6.  Zhao Xuezhai
+       A renowned “poet in plain clothes” in Hangzhou. Though lacking official rank, his poetic fame spread far and wide. With extensive connections, he was one of the leading figures in the local poetry scene.
+7.  Zhi Jianfeng, Pu Moqing
+       Members of the poetry circle led by Jing Lanjiang and Zhao Xuezhai, they were the “leaders of the poetry gatherings” in Hangzhou.</t>
+  </si>
+  <si>
+    <t>1.  Kuang Chaoren Passes the Provincial Examination and Family Turmoil
+    Participants: Kuang Chaoren, Kuang Taigong, Pan Baozheng, Kuang Da
+    Events:
+    1. Joyful News Arrives: Kuang Chaoren secures first place in the provincial examination, becoming a scholar (entering the academy). Pan Baozheng and neighbors come to congratulate him.
+    2. Father's Passing: Grandfather Kuang peacefully dies after witnessing his son's scholarly success. His dying words emphasize that “virtue” outweighs “scholarly fame,” warning Kuang Chaoren against becoming power-hungry.
+    3. Master's Dismissal: Magistrate Li, who had recognized Kuang Chaoren's talent, was dismissed and investigated, sparking a popular uprising. As the magistrate's disciple, Kuang Chaoren became implicated. Secret reports labeled him a “ringleader” and he faced legal trouble.
+2.  Fleeing to Hangzhou to Avoid Trouble
+    Participants: Kuang Chaoren, Pan Baozheng
+    Events:
+    1. Pan Baozheng informs Kuang Chaoren of the secret report and advises him to leave town.
+    2. Kuang Chaoren decides to go to Hangzhou. Pan Baozheng writes a letter introducing him to seek assistance from his brother, Third Master Pan, who serves as a clerk in the Provincial Administration Office.
+3:  Initial Entry into Hangzhou's Literati Circle
+    Participants: Kuang Chaoren, Jing Lanjiang, Zhao Xuezhai, Zhi Jianfeng, Pu Moqing
+    Events:
+    1. Shipboard Encounter: En route to Hangzhou, Kuang Chaoren befriends Jing Lanjiang, a headscarf merchant who disdains the imperial examinations yet passionately composes poetry, styling himself a “literati.”
+    2. Meeting Zhao Xuezhai: After arriving in Hangzhou, Jing Lanjing introduced Kuang Chaoren to the renowned physician and poet Zhao Xuezhai.
+3. Tavern Debate: Kuang Chaoren drank with Jing Lanjing, Zhi Jianfeng, Pu Moqing, and others. The group debated whose life was more enviable: Huang Gong, an official who passed the imperial examinations, or Zhao Xuezhai, a commoner renowned for his poetry.
+Debate Focus: Should one pursue scholarly honors (like Huang, who passed the exams but remained solitary) or poetic fame and worldly happiness (like Zhao, who lacked official rank but enjoyed a large family and widespread poetic renown)? Conclusion Impact: Jing Lanjiang's assertion that “poetic fame surpasses the prestige of imperial examination success” profoundly shocked Kuang Chaoren, who had long held the belief that the imperial examinations were the sole path to success. He exclaimed, “Only now do I realize there exists such a principle in this world.”</t>
+  </si>
+  <si>
+    <t>This chapter marks another turning point in Kuang Chaoren's life. Just as he began to achieve fame and fortune, he faced the successive blows of his father's death and political entanglements, forcing him to leave his hometown. In Hangzhou, he first encountered a circle of “literati” who revered poetic fame—a group that appeared refined yet was fundamentally hollow. This stood in stark contrast to the “academic supremacy” philosophy he had previously absorbed from Master Ma Er, foreshadowing a new shift in his thinking and life path—one that might lead him astray.</t>
+  </si>
+  <si>
+    <t>1.  Kuang Chaoren
+       The central figure of this chapter. He takes on the task of grading examination papers at Wenhan Tower, demonstrating his sharp intellect. Through Jing Lanjiang's introduction, he formally enters Hangzhou's circle of “literary luminaries,” attending the birthday banquet for Third Young Master Hu and the poetry gathering at West Lake.
+       His interactions with diverse individuals and their discourse and conduct begin to influence his perspectives and behavior.
+2.  Jing Lanjiang
+       A headscarf shop merchant and Kuang Chaoren's primary guide into Hangzhou's literati circles. He led Kuang to the Third Young Master Hu's birthday banquet and collaborated in organizing and participating in the West Lake poetry gathering.
+3.  Third Young Master Hu (Hu Mizhi)
+       Son of the late Grand Secretary Hu (Minister of Personnel). Despite his illustrious lineage, he was timid and miserly, becoming a figure upon whom Hangzhou's literati relied and from whom they sought favors. In this chapter, he hosted the birthday banquet and served as the host of the West Lake Poetry Gathering (responsible for collecting fees and making purchases).
+4.  Zhao Xuezhai
+       The renowned “poet in plain clothes” and leader of the poetry circle. He made the grand finale appearance at Third Young Master Hu's banquet and was also a central figure at the West Lake Poetry Gathering.
+5.  Wei Tishan, Sui Cen'an
+       Two seasoned anthologists of literary works (veteran scholars of the Mingjing examinations). At the Third Young Master Hu's banquet, they engaged in lofty discourse, criticizing Mr. Ma Er's anthology while promoting their own pedantic “rules of literary composition.”
+6.  Zhi Jianfeng, Pu Moqing
+       Members of the poetry gathering. Zhi Jianfeng was stripped of his scholar's cap and arrested by the Salt Commissioner's deputy for causing a drunken disturbance on the return journey from the West Lake gathering.
+7.  Jin Dongya, Yan Zhizhong (Yan Gongsheng)
+       Other literati present at Third Young Master Hu's birthday banquet. Jin Dongya is a retired official, while Yan Zhizhong boasts of his connections in the capital.
+8.  Master of Wenhan Tower
+       Provided Kuang Chaoren with the opportunity to review examination papers and highly praised his efficiency.</t>
+  </si>
+  <si>
+    <t>1.  Kuang Chaoren Gains Early Renown for Exam Grading
+Participants: Kuang Chaoren, Master of Wenhan Tower
+Event:
+    1. The Master of Wenhan Tower commissioned Kuang Chaoren to grade over three hundred exam papers, demanding completion within half a month.
+    2.  Kuang Chaoren, with his sharp intellect, worked day and night, finishing all corrections in just six days. His quality earned praise, securing promises of selection for the anthology and sample copies. His efficiency far surpassed predecessors (such as Master Ma Er).
+2.  Hu San Gongzi's Birthday Banquet: First Encounter with the Literati Circle
+    Participants: Kuang Chaoren, Jing Lanjiang, Hu San Gongzi, Zhao Xuezhai, Wei Tishan, Sui Cen'an, Zhi Jianfeng, Pu Moqing, Jin Dongya, Yan Zhizhong, and others.
+    Events:
+    1. Introduction to the Banquet: Jing Lanjiang brought Kuang Chaoren to celebrate Third Young Master Hu's birthday. En route, he explained that though Third Young Master Hu came from a distinguished family, he was snobbish and timid, relying entirely on connections with literati like Zhao Xuezhai to maintain appearances.
+    2. Banquet Scenes:
+           The gathering drew Hangzhou's “literary luminaries,” including the veteran anthologists Wei Tishan and Sui Cen'an. They engaged in lofty discourse, disparaging Master Ma Er's anthology while extolling pedantic “rules of composition.”
+           Zhao Xuezhai made a grand entrance as the final guest, his elaborate procession underscoring his status.
+           This banquet offered Kuang Chaoren deeper insight into the vanity and hollowness of this circle.
+3.  West Lake Poetry Gathering: A Spectacle of Ridiculous Behavior
+    Participants: Kuang Chaoren, Jing Lanjiang, Third Young Master Hu, Zhao Xuezhai, Wei Tishan, Sui Cen'an, Zhi Jianfeng, Pu Moqing, and others—nine in total.
+    Incidents:
+    1.  Penny-pinching Preparations: As host responsible for procurement, Third Young Master Hu revealed his miserly nature (poking ducks to check fatness, arguing over steamed bun prices, packing leftover rice and dishes).
+    2. Poetry with pretentious flair: At the monk's temple poetry gathering, participants drew lots for rhyme schemes. To save face, Kuang Chaoren hastily studied “Introduction to Poetry Composition” and produced surprisingly decent verses, even deeming them superior to the clichéd offerings of Wei and Sui.
+    3. Trouble on the Way Home: Returning late from the gathering, Zhi Jianfeng became intoxicated and made reckless remarks. Recognized by a deputy salt inspector as an unlicensed merchant, he was arrested on the spot for wearing unauthorized headgear and drinking in public at night. Jing Lanjiang and Kuang Chaoren seized the moment to slip away.</t>
+  </si>
+  <si>
+    <t>This chapter vividly portrays the vulgarity, vanity, and chaos within Hangzhou's so-called “literary elite” circle through three events: grading papers, a birthday banquet, and a poetry gathering. Within this environment, Kuang Chaoren begins to adapt and rise to prominence. His intelligence and talents are put to use—he grades papers swiftly and composes poetry with speed—yet he also starts to adopt the circle's vain habits. Witnessing the various ugly traits of its members—such as Hu San's stinginess, Wei Sui's pedantry, and Zhi Jianfeng's downfall—he lays the groundwork for his character's future transformation.</t>
+  </si>
+  <si>
+    <t>1.  Kuang Chaoren
+       The central figure of this chapter. He formally joins Pan San's ranks, participating in numerous illegal activities that dramatically improve his circumstances (gaining wealth, marrying, having children, pursuing education). Upon learning of Pan San's arrest and seeing the charges against him, he is utterly terrified.
+2.  Pan San (Pan Ziyè)
+       A clerk at the Provincial Administration Office, but in reality a street thug. In this chapter, he becomes Kuang Chaoren's “good friend” and de facto mentor, drawing him into various schemes of abusing power for personal gain. He is ultimately arrested when his crimes are exposed.
+3.  Old Man Zheng
+       A constable at the Provincial Governor's Office, an honest man. His third daughter was married to Kuang Chaoren through Pan San's matchmaking.
+4.  Jing Lanjiang
+       A former poetry friend. Appears at the end of this chapter to inform Kuang Chaoren of Pan San's arrest and takes him to see the arrest warrant and list of charges.
+5.  Other Participants in Pan San's Illegal Activities:
+       Wang Laoliu, Huang Qiu: Constables and intermediaries involved in handling the “Lotus Case.”
+       Hao Lao'er: Came to Pan San seeking a forged marriage certificate for the “Bride-Snatching Case.”
+       Li Si, Jin Dongya: Intermediaries and employers involved in the “Exam-Taking Substitute Case.”</t>
+  </si>
+  <si>
+    <t>1.  Kuang Chaoren Joins Pan San's Entourage
+    Participants: Kuang Chaoren, Pan San
+    Events:
+    1.  Pan San approaches Kuang Chaoren, warning him against associating with “literati” like Jing Lanjiang, whom he dismisses as “fools,” and introduces him to the real workings of society.
+    2. Pan San had Kuang Chaoren take a cut from gambling operations and began involving him in clerical work.
+2.  Participation in Pan San's Illegal Activities
+    Participants: Pan San, Kuang Chaoren, Wang Laoliu, Huang Qiu, Hao Lao'er, etc.
+    Events: Pan San handled several illegal affairs simultaneously, involving Kuang Chaoren in document forgery:
+    1. The Lotus Case: Handling the concubine Lotus, arrested by officials, by forging official documents (retroactive approvals, red seals) to intercept and resell her to the wealthy Hu family.
+    2. The Bride-Snatching Case: Villager Hao Er sought Pan San to write a fake marriage certificate as evidence after a bride-snatching incident led to legal trouble.
+       Under Pan San's guidance, Kuang Chaoren forged the marriage certificate, reply endorsement, and red seal endorsement.
+    Pan San profited from this and shared twenty taels of silver with Kuang Chaoren. For nearly two years thereafter, Kuang Chaoren closely followed Pan San, participating in his schemes and sharing the profits, growing distant from his former poetry friends.
+3.  Shaoxing Exam Substitution Case
+    Participants: Pan San, Kuang Chaoren, Li Si, Jin Dongya (Employer), Jin Yue (Candidate)
+    Incident:
+    1. Jin Dongya sought to purchase a scholar's degree for his illiterate son Jin Yue, approaching Pan San through Li Si to arrange it.
+    2. Pan San undertook the arrangement, demanding five hundred taels of silver. He assigned Kuang Chaoren to serve as the proxy examinee.
+    3. On examination day, Pan San arranged for Kuang Chaoren to disguise himself as a constable (military jailer). At the second gate of the examination hall, he swapped places with the genuine candidate Jin Yue, allowing Kuang Chaoren to enter and take the exam in his stead.
+    4. The scheme succeeded, and Jin Yue advanced to higher studies. Pan San gave Kuang Chaoren two hundred taels as payment for his services.
+4.  Kuang Chaoren Marries and Starts a Family
+    Participants: Kuang Chaoren, Pan San, Old Man Zheng and his daughter
+    Events:
+    1.  Using the proceeds from the exam fraud, Pan San sponsored and arranged the marriage between Kuang Chaoren and the third daughter of Old Man Zheng, a constable at the Provincial Court.
+    2. Kuang Chao-ren became a son-in-law of the Zheng family, later discovering that Old Man Zheng was the kind-hearted elder who had shared his boat journey home years prior—a true “fate-bound connection.”
+    3. Pan San continued his support, arranging a mortgaged house for them to live in. A year later, Kuang Chao-ren's wife gave birth to a daughter.
+5.  Advancement in Official Rank and Pan San's Exposure
+    Participants: Kuang Chaoren, Pan San, Jing Lanjiang, Jiang Xingfang
+Events:
+    1. Double Celebration:
+    Kuang Chaoren received a letter from his teacher Li Benying, now promoted to Censor, inviting him to the capital.
+    He returned to Wenzhou for the provincial examination, where the chief examiner ranked him first in the top tier and “commended his outstanding conduct,” recommending him to the Imperial Academy.
+    2. Joy Turned to Sorrow:
+    Just as Kuang Chao-jen prepared to return home in triumph, Jing Lanjiang delivered the shocking news that Pan San had been arrested by the authorities the previous night.
+    Jing Lanjiang took Kuang Chao-jen to the home of a relative working in the Criminal Court, where they saw the investigation notice from the Provincial Governor's Office and Pan San's indictment.
+The indictment listed over a dozen grave crimes: embezzling public funds, settling murders privately, forging official seals, abducting people, threatening lives, and colluding in proxy examinations.
+Upon reading it, Kuang Chao-ren felt his soul leave his body. He realized he was deeply implicated—especially in the proxy examination case—and that grave danger might be imminent.</t>
+  </si>
+  <si>
+    <t>This chapter marks the pinnacle and turning point of Kuang Chaoren's life. By attaching himself to Pan San, he achieved unprecedented success in material life and career advancement—accumulating wealth, establishing a family, and pursuing higher education. Yet all this was gained through a complete abandonment of morality and involvement in illegal activities. Pan San's sudden arrest struck like a bolt from the blue, signaling the imminent collapse of Kuang Chaoren's illicitly built “happy life” and foreshadowing the precipitous downfall of his fate.</t>
+  </si>
+  <si>
+    <t>1.  Kuang Chaoren
+       The central figure of this chapter. His character further degenerates, manifested in: abandoning his wife to marry into a higher social circle, displaying cold indifference and hypocrisy toward his first wife's death, betraying the gratitude owed to his benefactor Pan San, and acting arrogantly pretentious before figures like Niu Buyi while feigning knowledge he lacks.
+2.  Madam Zheng
+       Kuang Chaoren's first wife. Forcibly sent back to his rural hometown in Yueqing, she succumbs to depression and dies after coughing up blood, unable to adapt to her new life.
+3.  Li Guiyan (Li Benying)
+       Kuang Chaoren's teacher, now promoted to Imperial Censor. He recognizes Kuang's talent and arranges his marriage to his own niece.
+4.  Miss Xin
+       Niece of Li Guiyan. She became Kuang Chaoren's second wife after he concealed his prior marriage.
+5.  Pan San (Pan Ziyè)
+       Though never appearing directly in prison, his fate served as a litmus test for Kuang Chaoren's character. Kuang refused to visit him and offered only hollow excuses to distance himself.
+6.  Niu Buyi
+       A destitute elderly poet. While traveling to Wuhu to visit friends, he shared a boat with Kuang Chaoren for a stretch before dying of illness at Ganlu Temple in Wuhu. His death introduces a new character in the next chapter.
+7.  Feng Zhuo'an
+       A newly passed juren (imperial scholar) who traveled by boat with Kuang Chaoren and Niu Buyi to take the imperial examinations in the capital.
+8.  The Old Monk of Ganlu Temple
+       He sheltered Niu Buyi, tenderly cared for him during his illness, and arranged his funeral after his death. A kind-hearted figure.</t>
+  </si>
+  <si>
+    <t>1.  Abandoning the Old Wife to Climb Higher
+    Participants: Kuang Chaoren, Mrs. Zheng, Old Man Zheng, Kuang Da, Li Gijian, Miss Xin
+    Events:
+    1.  Forcing His Wife to Return Home: Fearing involvement in the Pan San case, Kuang Chaoren urgently sought to leave Hangzhou. He fabricated an official assignment as an excuse to forcibly send his wife, Mrs. Zheng, back to their rural home in Yueqing, disregarding her and her mother's objections.
+    2. Abandoning Wife to Remarry: Upon arriving in the capital, his teacher Li Guiyan sought to marry his niece, Miss Xin, to him. To curry favor with the powerful, Kuang Chaoren concealed his existing marriage and readily entered the Li household as a son-in-law.
+    3. Death of the First Wife: Mrs. Zheng, unable to adjust to rural life and overcome by depression, died after coughing up blood. Upon returning to Hangzhou and learning of her death, Kuang Chaoren shed only a few tears. He then masked his guilt with a false display of mourning (such as commissioning a portrait and wearing mourning clothes) and swiftly dismissed her brother with money to handle the funeral arrangements, revealing utter indifference.
+2.  Abandoning Old Friends to Display Opportunism
+    Participants: Kuang Chaoren, Jing Lanjiang, Jiang Xingfang, Pan San (behind the scenes)
+    Events:
+    1. Jiang Xingfang, entrusted by Pan San, asked Kuang Chaoren to visit him in prison.
+    2. Kuang Chaoren immediately adopted an official's haughty demeanor, sternly refusing with lofty justifications like “imperial rewards and punishments” and “disgrace in officialdom.” He declared that Pan San's actions were such that “even if I were a local magistrate, I would arrest him,” completely forgetting their past friendship.
+    3. He merely made empty promises to “assist” financially if he attained official rank in the future, effectively severing all ties with Pan San.
+3.  Boasting on the Boat, Exposing His True Colors
+    Participants: Kuang Chaoren, Niu Buyi, Feng Zhuo'an
+    Events:
+    1.  On the boat heading north to the capital, Kuang Chaoren encountered Niu Buyi and Feng Zhuo'an.
+    2.  He boasted extravagantly about his anthology selling nationwide, even claiming that “a shrine to the late Confucian scholar Kuang Zi” had been erected in his honor.
+    3. When Niu Buyi pointed out that “ancient Confucian scholars” referred to deceased scholars, he stubbornly argued, flushing red as he made excuses.
+    4. He disparaged his benefactor, Master Ma Er, as “strong on principles but lacking in talent,” and declared his anthology “available even abroad,” displaying the height of vanity and exaggeration.
+4: Niu Buyi Dies in Exile at Wuhu
+Participants: Niu Buyi, Old Monk of Ganlu Temple
+Events:
+    1. After parting with Kuang Chaoren and others, Niu Buyi traveled alone to Wuhu seeking friends, lodging at Ganlu Temple.
+    2. Falling gravely ill, he entrusted his final arrangements (coffin, funeral rites) and lifetime poetry manuscripts to the monk tending to him before passing.
+    3. Niu Buyi died in solitude. The monk honorably handled his funeral, keeping the coffin at the monastery. His manuscripts and casket foreshadow subsequent plot developments.</t>
+  </si>
+  <si>
+    <t>This chapter vividly portrays the complete moral collapse of Kuang Chaoren. His coldness toward his first wife, his ingratitude toward his benefactor, and his arrogant ignorance before scholars utterly betrayed his original image of filial piety and simplicity, transforming him into a quintessential hypocrite—self-serving, opportunistic, and ungrateful. Meanwhile, the tragic demise of Niu Buyi stands in stark contrast, revealing a genuine and poignant existence beyond the pursuit of fame and fortune. By this point in Kuang Chaoren's narrative, the degradation of his character has reached its climax.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="SimSun"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -706,27 +1556,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="38.43"/>
-    <col customWidth="1" min="3" max="3" width="126.71"/>
-    <col customWidth="1" min="4" max="4" width="14.57"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.70909090909091" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.4272727272727" style="1" customWidth="1"/>
+    <col min="3" max="3" width="126.709090909091" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5727272727273" style="1" customWidth="1"/>
+    <col min="5" max="26" width="8.70909090909091" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="14.4272727272727" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
+    <row r="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,162 +1593,161 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A2" s="1">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A3" s="1">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A4" s="1">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A5" s="1">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="6" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A6" s="1">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="7" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A7" s="1">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="8" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A8" s="1">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="9" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A9" s="1">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="10" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A10" s="1">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="11" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A11" s="1">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A12" s="1">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1"/>
-    <row r="14" ht="13.5" customHeight="1"/>
     <row r="15" ht="13.5" customHeight="1"/>
     <row r="16" ht="13.5" customHeight="1"/>
     <row r="17" ht="13.5" customHeight="1"/>
@@ -1883,9 +2735,8 @@
     <row r="999" ht="13.5" customHeight="1"/>
     <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>